--- a/src/Game Layout 4Q.xlsx
+++ b/src/Game Layout 4Q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS4jects\q4proj\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2FFD811-76CC-47F0-9516-9EC4BC9AEC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDF4F50-A3D2-4485-8F0F-FC01E833408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1A9EE637-77E4-468F-B001-0398481A03F8}"/>
   </bookViews>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -62,12 +62,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +724,1544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4192CC45-20CD-42D8-836F-EBE8CA8C34C6}">
-  <dimension ref="A1"/>
+  <dimension ref="F5:AR45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="12:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>11</v>
+      </c>
+      <c r="Y5">
+        <v>12</v>
+      </c>
+      <c r="Z5">
+        <v>13</v>
+      </c>
+      <c r="AA5">
+        <v>14</v>
+      </c>
+      <c r="AB5">
+        <v>15</v>
+      </c>
+      <c r="AC5">
+        <v>16</v>
+      </c>
+      <c r="AD5">
+        <v>17</v>
+      </c>
+      <c r="AE5">
+        <v>18</v>
+      </c>
+      <c r="AF5">
+        <v>19</v>
+      </c>
+      <c r="AG5">
+        <v>20</v>
+      </c>
+      <c r="AH5">
+        <v>21</v>
+      </c>
+      <c r="AI5">
+        <v>22</v>
+      </c>
+      <c r="AJ5">
+        <v>23</v>
+      </c>
+      <c r="AK5">
+        <v>24</v>
+      </c>
+      <c r="AL5">
+        <v>25</v>
+      </c>
+      <c r="AM5">
+        <v>26</v>
+      </c>
+      <c r="AN5">
+        <v>27</v>
+      </c>
+      <c r="AO5">
+        <v>28</v>
+      </c>
+      <c r="AP5">
+        <v>29</v>
+      </c>
+      <c r="AQ5">
+        <v>30</v>
+      </c>
+      <c r="AR5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="3"/>
+    </row>
+    <row r="7" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="6"/>
+    </row>
+    <row r="8" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="6"/>
+    </row>
+    <row r="9" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="6"/>
+    </row>
+    <row r="10" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="6"/>
+    </row>
+    <row r="11" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="6"/>
+    </row>
+    <row r="12" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="6"/>
+    </row>
+    <row r="13" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="6"/>
+    </row>
+    <row r="14" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="6"/>
+    </row>
+    <row r="15" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="6"/>
+    </row>
+    <row r="16" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="6"/>
+    </row>
+    <row r="17" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="6"/>
+    </row>
+    <row r="18" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="6"/>
+    </row>
+    <row r="19" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="6"/>
+    </row>
+    <row r="20" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="6"/>
+    </row>
+    <row r="21" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="6"/>
+    </row>
+    <row r="22" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="6"/>
+    </row>
+    <row r="23" spans="6:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="9"/>
+    </row>
+    <row r="27" spans="6:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>9</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>11</v>
+      </c>
+      <c r="Y27">
+        <v>12</v>
+      </c>
+      <c r="Z27">
+        <v>13</v>
+      </c>
+      <c r="AA27">
+        <v>14</v>
+      </c>
+      <c r="AB27">
+        <v>15</v>
+      </c>
+      <c r="AC27">
+        <v>16</v>
+      </c>
+      <c r="AD27">
+        <v>17</v>
+      </c>
+      <c r="AE27">
+        <v>18</v>
+      </c>
+      <c r="AF27">
+        <v>19</v>
+      </c>
+      <c r="AG27">
+        <v>20</v>
+      </c>
+      <c r="AH27">
+        <v>21</v>
+      </c>
+      <c r="AI27">
+        <v>22</v>
+      </c>
+      <c r="AJ27">
+        <v>23</v>
+      </c>
+      <c r="AK27">
+        <v>24</v>
+      </c>
+      <c r="AL27">
+        <v>25</v>
+      </c>
+      <c r="AM27">
+        <v>26</v>
+      </c>
+      <c r="AN27">
+        <v>27</v>
+      </c>
+      <c r="AO27">
+        <v>28</v>
+      </c>
+      <c r="AP27">
+        <v>29</v>
+      </c>
+      <c r="AQ27">
+        <v>30</v>
+      </c>
+      <c r="AR27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="3"/>
+    </row>
+    <row r="29" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="27"/>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="6"/>
+    </row>
+    <row r="30" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="6"/>
+    </row>
+    <row r="31" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="6"/>
+    </row>
+    <row r="32" spans="6:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="6"/>
+    </row>
+    <row r="33" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="6"/>
+    </row>
+    <row r="34" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="6"/>
+    </row>
+    <row r="35" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="6"/>
+    </row>
+    <row r="36" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="6"/>
+    </row>
+    <row r="37" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="6"/>
+    </row>
+    <row r="38" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="6"/>
+    </row>
+    <row r="39" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>11</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="6"/>
+    </row>
+    <row r="40" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="6"/>
+    </row>
+    <row r="41" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="6"/>
+    </row>
+    <row r="42" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="6"/>
+    </row>
+    <row r="43" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="6"/>
+    </row>
+    <row r="44" spans="12:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="6"/>
+    </row>
+    <row r="45" spans="12:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>